--- a/data/trans_orig/P36BPD04_R2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_R2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>120290</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102019</v>
+        <v>102043</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141655</v>
+        <v>141291</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2079233249356711</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1763424718974186</v>
+        <v>0.1763838517540561</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2448534547277159</v>
+        <v>0.2442238408400332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>288</v>
@@ -762,19 +762,19 @@
         <v>162662</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>145997</v>
+        <v>145029</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>181669</v>
+        <v>181498</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1982416369479987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1779313460463665</v>
+        <v>0.1767515024338631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2214060319213811</v>
+        <v>0.2211985002602192</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>425</v>
@@ -783,19 +783,19 @@
         <v>282951</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>256751</v>
+        <v>258825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>311632</v>
+        <v>312213</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2022451631328366</v>
+        <v>0.2022451631328367</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1835175666249041</v>
+        <v>0.1850001575857829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2227448712134604</v>
+        <v>0.2231600925860149</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>458239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>436874</v>
+        <v>437238</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>476510</v>
+        <v>476486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.792076675064329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7551465452722838</v>
+        <v>0.7557761591599665</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8236575281025813</v>
+        <v>0.8236161482459439</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1136</v>
@@ -833,19 +833,19 @@
         <v>657861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638854</v>
+        <v>639025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>674526</v>
+        <v>675494</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8017583630520013</v>
+        <v>0.8017583630520014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.778593968078619</v>
+        <v>0.778801499739781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8220686539536342</v>
+        <v>0.823248497566137</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1690</v>
@@ -854,19 +854,19 @@
         <v>1116101</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1087420</v>
+        <v>1086839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1142301</v>
+        <v>1140227</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7977548368671633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7772551287865396</v>
+        <v>0.7768399074139851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8164824333750959</v>
+        <v>0.8149998424142172</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>447969</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>403705</v>
+        <v>403408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>493496</v>
+        <v>494925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2009294420804289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1810753986144883</v>
+        <v>0.1809421932191691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2213498823052778</v>
+        <v>0.2219909086786453</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>631</v>
@@ -979,19 +979,19 @@
         <v>444995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>407174</v>
+        <v>410536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>479828</v>
+        <v>482580</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.205041662440932</v>
+        <v>0.2050416624409321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.187614962372309</v>
+        <v>0.1891641762195428</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2210917958877813</v>
+        <v>0.2223602098591863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1024</v>
@@ -1000,19 +1000,19 @@
         <v>892964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>836636</v>
+        <v>840432</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>947193</v>
+        <v>961556</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2029578771007854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1901553104028458</v>
+        <v>0.1910181948622662</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2152834065136248</v>
+        <v>0.218547920516069</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1781516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1735989</v>
+        <v>1734560</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1825780</v>
+        <v>1826077</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7990705579195712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7786501176947221</v>
+        <v>0.7780090913213547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8189246013855115</v>
+        <v>0.8190578067808306</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2288</v>
@@ -1050,19 +1050,19 @@
         <v>1725269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1690436</v>
+        <v>1687684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1763090</v>
+        <v>1759728</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7949583375590681</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7789082041122188</v>
+        <v>0.7776397901408137</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.812385037627691</v>
+        <v>0.8108358237804572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3886</v>
@@ -1071,19 +1071,19 @@
         <v>3506785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3452556</v>
+        <v>3438193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3563113</v>
+        <v>3559317</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7970421228992146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7847165934863753</v>
+        <v>0.7814520794839313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8098446895971541</v>
+        <v>0.8089818051377338</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>153586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129549</v>
+        <v>130089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176962</v>
+        <v>177433</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2158364157259657</v>
+        <v>0.2158364157259656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1820561057075482</v>
+        <v>0.1828154260660611</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2486862881087744</v>
+        <v>0.2493477221490491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -1196,19 +1196,19 @@
         <v>161355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141401</v>
+        <v>142496</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>181044</v>
+        <v>182721</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2195672591095768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.192414714904505</v>
+        <v>0.1939047479015566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2463592955594616</v>
+        <v>0.2486409367043272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>371</v>
@@ -1217,19 +1217,19 @@
         <v>314941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>283653</v>
+        <v>283501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>347583</v>
+        <v>347510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2177318735111798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1961007749967334</v>
+        <v>0.1959956876819871</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2402986252584224</v>
+        <v>0.2402479543332694</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>558001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>534625</v>
+        <v>534154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>582038</v>
+        <v>581498</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7841635842740342</v>
+        <v>0.7841635842740343</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7513137118912254</v>
+        <v>0.7506522778509508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8179438942924513</v>
+        <v>0.817184573933939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>779</v>
@@ -1267,19 +1267,19 @@
         <v>573522</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>553833</v>
+        <v>552156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>593476</v>
+        <v>592381</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.780432740890423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7536407044405382</v>
+        <v>0.7513590632956727</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8075852850954952</v>
+        <v>0.8060952520984433</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1314</v>
@@ -1288,19 +1288,19 @@
         <v>1131523</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1098881</v>
+        <v>1098954</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1162811</v>
+        <v>1162963</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7822681264888204</v>
+        <v>0.78226812648882</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7597013747415777</v>
+        <v>0.7597520456667304</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8038992250032665</v>
+        <v>0.8040043123180128</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>721845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>670347</v>
+        <v>668887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>782161</v>
+        <v>778407</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2050929186551117</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1904611386965169</v>
+        <v>0.1900463672145618</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2222299888633399</v>
+        <v>0.2211633949512138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1144</v>
@@ -1413,19 +1413,19 @@
         <v>769011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>726895</v>
+        <v>727254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>815144</v>
+        <v>813189</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2064091922940589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1951047495380973</v>
+        <v>0.1952011849422313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2187917010387102</v>
+        <v>0.2182669110884752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1820</v>
@@ -1434,19 +1434,19 @@
         <v>1490857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1420806</v>
+        <v>1421237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1562562</v>
+        <v>1559281</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2057697735797482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1961013845728534</v>
+        <v>0.1961607942403669</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2156667052357382</v>
+        <v>0.2152138365783195</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2797756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2737440</v>
+        <v>2741194</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2849254</v>
+        <v>2850714</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7949070813448882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7777700111366593</v>
+        <v>0.7788366050487863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8095388613034826</v>
+        <v>0.8099536327854381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4203</v>
@@ -1484,19 +1484,19 @@
         <v>2956653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2910520</v>
+        <v>2912475</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2998769</v>
+        <v>2998410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7935908077059411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7812082989612897</v>
+        <v>0.7817330889115249</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.804895250461903</v>
+        <v>0.8047988150577688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6890</v>
@@ -1505,19 +1505,19 @@
         <v>5754408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5682703</v>
+        <v>5685984</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5824459</v>
+        <v>5824028</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7942302264202519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7843332947642618</v>
+        <v>0.7847861634216803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8038986154271466</v>
+        <v>0.803839205759633</v>
       </c>
     </row>
     <row r="15">
